--- a/BackTest/2019-10-31 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-31 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>486706.3382336647</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>486706.3382336647</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,22 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,22 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -726,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -798,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -870,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1158,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1230,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1266,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1302,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1374,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1410,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1446,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1482,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1518,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1554,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1590,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1626,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1662,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1698,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1734,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1770,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1806,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1948,22 +1804,15 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1988,26 +1837,21 @@
         <v>706165.1138336648</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L44" t="inlineStr">
+        <v>12.5</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2032,26 +1876,21 @@
         <v>702165.1138336648</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L45" t="inlineStr">
+        <v>12.7</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2076,26 +1915,21 @@
         <v>702223.1296336649</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L46" t="inlineStr">
+        <v>12.5</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2120,26 +1954,19 @@
         <v>702273.1296336649</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2166,22 +1993,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2206,26 +2028,19 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2250,26 +2065,19 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2294,26 +2102,19 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2340,22 +2141,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2382,22 +2178,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2424,22 +2215,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2466,22 +2252,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2508,22 +2289,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2550,22 +2326,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2592,22 +2363,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2632,24 +2398,19 @@
         <v>612966.7802336649</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2676,22 +2437,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2718,22 +2474,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2760,22 +2511,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2802,22 +2548,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2844,22 +2585,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2886,22 +2622,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2926,24 +2657,17 @@
         <v>621601.4291336648</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2968,24 +2692,15 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1.011</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3010,18 +2725,15 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3046,18 +2758,15 @@
         <v>597989.3819336648</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3082,18 +2791,15 @@
         <v>546817.5069336648</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3118,18 +2824,15 @@
         <v>548317.5069336648</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3156,16 +2859,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3192,16 +2892,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3228,16 +2925,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3264,16 +2958,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3298,18 +2989,15 @@
         <v>437422.0789336648</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3334,18 +3022,15 @@
         <v>265195.2536336648</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3370,18 +3055,15 @@
         <v>265205.2536336648</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3406,18 +3088,15 @@
         <v>237489.6891336648</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3442,18 +3121,15 @@
         <v>415345.0994336648</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3478,18 +3154,15 @@
         <v>248313.7771336648</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3514,18 +3187,15 @@
         <v>248323.7771336648</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3550,18 +3220,15 @@
         <v>248311.4458336648</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3586,18 +3253,15 @@
         <v>277060.6193336648</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3624,16 +3288,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3658,18 +3319,15 @@
         <v>161387.6331336648</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3694,18 +3352,15 @@
         <v>3943.915833664854</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3730,18 +3385,15 @@
         <v>3953.915833664854</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3766,18 +3418,15 @@
         <v>3953.915833664854</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3804,16 +3453,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3840,16 +3486,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3876,16 +3519,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3910,22 +3550,19 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="J93" t="n">
         <v>12.5</v>
       </c>
-      <c r="K93" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3952,22 +3589,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3992,24 +3626,23 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L95" t="inlineStr">
+        <v>12.7</v>
+      </c>
+      <c r="J95" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4034,18 +3667,19 @@
         <v>-50213.51626633515</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>12.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4070,18 +3704,21 @@
         <v>-111237.1382663352</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4108,16 +3745,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4142,18 +3782,19 @@
         <v>-153166.2082663352</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>12.6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12.6</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4180,16 +3821,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4214,18 +3858,23 @@
         <v>-151686.2082663352</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>12.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4252,16 +3901,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4288,16 +3934,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4322,20 +3965,17 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-31 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>486706.3382336647</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>486706.3382336647</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>486719.1953336647</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>453662.4676336647</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>453662.4676336647</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>453662.4676336647</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>598273.1318336647</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>672980.6120336647</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>672980.6120336647</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>672970.6120336647</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>673530.6749336647</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>673530.6749336647</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>667246.6869336647</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>665966.6869336647</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1804,10 +1804,14 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1837,12 +1841,14 @@
         <v>706165.1138336648</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>12.5</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1876,12 +1882,14 @@
         <v>702165.1138336648</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>12.7</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,12 +1923,14 @@
         <v>702223.1296336649</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>12.5</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1954,10 +1964,14 @@
         <v>702273.1296336649</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1991,10 +2005,14 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2028,10 +2046,14 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2065,10 +2087,14 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2102,10 +2128,14 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,7 +2172,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2179,7 +2211,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2216,7 +2250,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,7 +2289,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2290,7 +2328,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2327,7 +2367,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2364,7 +2406,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2398,10 +2442,12 @@
         <v>612966.7802336649</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2438,7 +2484,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2475,7 +2523,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2512,7 +2562,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2549,7 +2601,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2586,7 +2640,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,7 +2679,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,16 +2715,20 @@
         <v>621601.4291336648</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.5</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
       <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2692,11 +2754,17 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2725,11 +2793,17 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2758,11 +2832,17 @@
         <v>597989.3819336648</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2791,11 +2871,17 @@
         <v>546817.5069336648</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2824,11 +2910,17 @@
         <v>548317.5069336648</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2860,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2893,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2926,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2959,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2989,11 +3105,17 @@
         <v>437422.0789336648</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3022,11 +3144,17 @@
         <v>265195.2536336648</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3055,11 +3183,17 @@
         <v>265205.2536336648</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3088,11 +3222,17 @@
         <v>237489.6891336648</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3121,11 +3261,17 @@
         <v>415345.0994336648</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3154,11 +3300,17 @@
         <v>248313.7771336648</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3187,11 +3339,17 @@
         <v>248323.7771336648</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3220,11 +3378,17 @@
         <v>248311.4458336648</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3253,11 +3417,17 @@
         <v>277060.6193336648</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3289,8 +3459,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3319,11 +3495,17 @@
         <v>161387.6331336648</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3352,11 +3534,17 @@
         <v>3943.915833664854</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3385,11 +3573,17 @@
         <v>3953.915833664854</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3418,11 +3612,17 @@
         <v>3953.915833664854</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3454,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3487,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3520,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3550,7 +3768,7 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>12.5</v>
@@ -3558,7 +3776,11 @@
       <c r="J93" t="n">
         <v>12.5</v>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3595,7 +3817,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3626,17 +3848,15 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>12.5</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3667,15 +3887,17 @@
         <v>-50213.51626633515</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3704,15 +3926,15 @@
         <v>-111237.1382663352</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3747,11 +3969,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -3782,15 +4004,19 @@
         <v>-153166.2082663352</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>12.6</v>
       </c>
       <c r="J99" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3823,11 +4049,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -3858,17 +4084,15 @@
         <v>-151686.2082663352</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L101" t="n">
@@ -3902,8 +4126,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3935,8 +4165,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3965,17 +4201,23 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
       <c r="M104" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-31 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>486706.3382336647</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>486706.3382336647</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>486719.1953336647</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>453662.4676336647</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>453662.4676336647</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>453662.4676336647</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>598273.1318336647</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>672980.6120336647</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>672980.6120336647</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>672970.6120336647</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>673530.6749336647</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>673530.6749336647</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>667246.6869336647</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>665966.6869336647</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,14 +1804,10 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>12.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1841,19 +1837,11 @@
         <v>706165.1138336648</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1882,19 +1870,11 @@
         <v>702165.1138336648</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1923,19 +1903,11 @@
         <v>702223.1296336649</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1964,19 +1936,11 @@
         <v>702273.1296336649</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2005,19 +1969,11 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2046,19 +2002,11 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2087,19 +2035,11 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2128,19 +2068,11 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2523,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2562,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2679,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2757,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2835,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2874,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2952,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2988,17 +2794,11 @@
         <v>550113.3740336648</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3027,17 +2827,11 @@
         <v>550113.3740336648</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3066,17 +2860,11 @@
         <v>550113.3740336648</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3105,17 +2893,11 @@
         <v>437422.0789336648</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3144,17 +2926,11 @@
         <v>265195.2536336648</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3183,17 +2959,11 @@
         <v>265205.2536336648</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3225,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3264,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3342,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3381,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3420,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3459,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3498,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3537,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3576,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3776,11 +3462,7 @@
       <c r="J93" t="n">
         <v>12.5</v>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3817,7 +3499,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3856,7 +3538,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3890,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3929,14 +3605,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3968,14 +3638,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4004,19 +3668,11 @@
         <v>-153166.2082663352</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4048,14 +3704,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4087,14 +3737,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4162,17 +3800,11 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4204,20 +3836,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
       <c r="M104" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-31 BackTest ORBS.xlsx
@@ -1573,10 +1573,14 @@
         <v>798060.5338336647</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12.6</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1609,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1649,17 @@
         <v>743996.3928336648</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1771,10 +1787,14 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12.6</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1804,11 +1824,19 @@
         <v>706055.1138336648</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1865,19 @@
         <v>706165.1138336648</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1906,19 @@
         <v>702165.1138336648</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1947,19 @@
         <v>702223.1296336649</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1988,19 @@
         <v>702273.1296336649</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2029,19 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2070,19 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2111,19 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2152,19 @@
         <v>641878.7606336649</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2193,19 @@
         <v>641888.7606336649</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2234,19 @@
         <v>641888.7606336649</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2278,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2317,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2353,19 @@
         <v>641898.7606336649</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J56" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2394,19 @@
         <v>637488.7606336649</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2435,19 @@
         <v>593996.7802336649</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2476,19 @@
         <v>612966.7802336649</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2517,19 @@
         <v>653988.6699336648</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2558,19 @@
         <v>653988.6699336648</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J61" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2602,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2641,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,13 +2677,19 @@
         <v>621591.4291336648</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="M64" t="inlineStr"/>
     </row>
@@ -2530,10 +2716,14 @@
         <v>621601.4291336648</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>12.6</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2566,8 +2756,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2792,17 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,7 +2831,7 @@
         <v>597979.3819336648</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,10 +2864,14 @@
         <v>597989.3819336648</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J69" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
@@ -2695,11 +2901,17 @@
         <v>546817.5069336648</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2940,19 @@
         <v>548317.5069336648</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2926,10 +3146,14 @@
         <v>265195.2536336648</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J77" t="n">
+        <v>12.7</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
@@ -2959,11 +3183,19 @@
         <v>265205.2536336648</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3224,19 @@
         <v>237489.6891336648</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J79" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3265,19 @@
         <v>415345.0994336648</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3306,19 @@
         <v>248313.7771336648</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3347,19 @@
         <v>248323.7771336648</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3388,19 @@
         <v>248311.4458336648</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J83" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3429,19 @@
         <v>277060.6193336648</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3470,19 @@
         <v>277060.6193336648</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3514,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3550,19 @@
         <v>3943.915833664854</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J87" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3594,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3630,19 @@
         <v>3953.915833664854</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J89" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3674,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3710,19 @@
         <v>-50323.51626633515</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J91" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3751,19 @@
         <v>-50323.51626633515</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J92" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3460,9 +3798,13 @@
         <v>12.5</v>
       </c>
       <c r="J93" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+        <v>12.7</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,15 +3833,17 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J94" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L94" t="n">
@@ -3530,15 +3874,17 @@
         <v>-50223.51626633515</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>12.7</v>
+      </c>
       <c r="J95" t="n">
-        <v>12.5</v>
+        <v>12.7</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3569,11 +3915,19 @@
         <v>-50213.51626633515</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3956,19 @@
         <v>-111237.1382663352</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J97" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3635,11 +3997,19 @@
         <v>-153176.2082663352</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3668,11 +4038,19 @@
         <v>-153166.2082663352</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3701,11 +4079,19 @@
         <v>-153166.2082663352</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +4120,19 @@
         <v>-151686.2082663352</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3767,11 +4161,19 @@
         <v>-151686.2082663352</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J102" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3800,11 +4202,19 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J103" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3833,11 +4243,19 @@
         <v>-201364.1933663352</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-31 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-31 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>20000</v>
       </c>
       <c r="G2" t="n">
-        <v>486706.3382336647</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>486706.3382336647</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>12.8571</v>
       </c>
       <c r="G4" t="n">
-        <v>486719.1953336647</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>33056.7277</v>
       </c>
       <c r="G5" t="n">
-        <v>453662.4676336647</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,19 @@
         <v>5577.5141</v>
       </c>
       <c r="G6" t="n">
-        <v>453662.4676336647</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12.5</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +597,23 @@
         <v>35298.6384</v>
       </c>
       <c r="G7" t="n">
-        <v>453662.4676336647</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +635,23 @@
         <v>144610.6642</v>
       </c>
       <c r="G8" t="n">
-        <v>598273.1318336647</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +673,19 @@
         <v>74707.48020000001</v>
       </c>
       <c r="G9" t="n">
-        <v>672980.6120336647</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>12.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12.6</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +707,21 @@
         <v>6241.3188</v>
       </c>
       <c r="G10" t="n">
-        <v>672980.6120336647</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +743,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>672970.6120336647</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +779,15 @@
         <v>560.0629</v>
       </c>
       <c r="G12" t="n">
-        <v>673530.6749336647</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +809,15 @@
         <v>19000</v>
       </c>
       <c r="G13" t="n">
-        <v>673530.6749336647</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +839,15 @@
         <v>6283.988</v>
       </c>
       <c r="G14" t="n">
-        <v>667246.6869336647</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +869,15 @@
         <v>1770</v>
       </c>
       <c r="G15" t="n">
-        <v>665476.6869336647</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +899,15 @@
         <v>500</v>
       </c>
       <c r="G16" t="n">
-        <v>665976.6869336647</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +929,15 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>665966.6869336647</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +959,15 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>666066.6869336647</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +989,15 @@
         <v>9590.957</v>
       </c>
       <c r="G19" t="n">
-        <v>666066.6869336647</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1019,15 @@
         <v>8330</v>
       </c>
       <c r="G20" t="n">
-        <v>657736.6869336647</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1049,15 @@
         <v>214883.9359</v>
       </c>
       <c r="G21" t="n">
-        <v>657736.6869336647</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1079,15 @@
         <v>37234.4867</v>
       </c>
       <c r="G22" t="n">
-        <v>620502.2002336647</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1109,15 @@
         <v>19641.092</v>
       </c>
       <c r="G23" t="n">
-        <v>620502.2002336647</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1139,15 @@
         <v>105044.7774</v>
       </c>
       <c r="G24" t="n">
-        <v>620502.2002336647</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1169,15 @@
         <v>44960.2191</v>
       </c>
       <c r="G25" t="n">
-        <v>620502.2002336647</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1199,15 @@
         <v>38079.5616</v>
       </c>
       <c r="G26" t="n">
-        <v>620502.2002336647</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1229,15 @@
         <v>147412.7099</v>
       </c>
       <c r="G27" t="n">
-        <v>473089.4903336647</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1259,15 @@
         <v>16102.5161</v>
       </c>
       <c r="G28" t="n">
-        <v>489192.0064336647</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1289,15 @@
         <v>119.2</v>
       </c>
       <c r="G29" t="n">
-        <v>489192.0064336647</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1319,15 @@
         <v>3778.2839</v>
       </c>
       <c r="G30" t="n">
-        <v>489192.0064336647</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1349,15 @@
         <v>77091.6064</v>
       </c>
       <c r="G31" t="n">
-        <v>489192.0064336647</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1379,15 @@
         <v>73529</v>
       </c>
       <c r="G32" t="n">
-        <v>562721.0064336647</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1409,15 @@
         <v>11910</v>
       </c>
       <c r="G33" t="n">
-        <v>562721.0064336647</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1439,15 @@
         <v>11920</v>
       </c>
       <c r="G34" t="n">
-        <v>562721.0064336647</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1469,15 @@
         <v>11741.2594</v>
       </c>
       <c r="G35" t="n">
-        <v>562721.0064336647</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,22 +1499,15 @@
         <v>235339.5274</v>
       </c>
       <c r="G36" t="n">
-        <v>798060.5338336647</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1607,24 +1529,15 @@
         <v>9935.078100000001</v>
       </c>
       <c r="G37" t="n">
-        <v>807995.6119336648</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1646,24 +1559,15 @@
         <v>63999.2191</v>
       </c>
       <c r="G38" t="n">
-        <v>743996.3928336648</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1685,18 +1589,15 @@
         <v>12904.4133</v>
       </c>
       <c r="G39" t="n">
-        <v>756900.8061336648</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1718,18 +1619,15 @@
         <v>26477.9646</v>
       </c>
       <c r="G40" t="n">
-        <v>730422.8415336648</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1751,18 +1649,15 @@
         <v>2000</v>
       </c>
       <c r="G41" t="n">
-        <v>730422.8415336648</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1784,22 +1679,15 @@
         <v>24367.7277</v>
       </c>
       <c r="G42" t="n">
-        <v>706055.1138336648</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1821,26 +1709,15 @@
         <v>23920.8632</v>
       </c>
       <c r="G43" t="n">
-        <v>706055.1138336648</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1862,26 +1739,15 @@
         <v>110</v>
       </c>
       <c r="G44" t="n">
-        <v>706165.1138336648</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1903,26 +1769,15 @@
         <v>4000</v>
       </c>
       <c r="G45" t="n">
-        <v>702165.1138336648</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1944,26 +1799,15 @@
         <v>58.0158</v>
       </c>
       <c r="G46" t="n">
-        <v>702223.1296336649</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1985,26 +1829,15 @@
         <v>50</v>
       </c>
       <c r="G47" t="n">
-        <v>702273.1296336649</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2026,26 +1859,15 @@
         <v>60394.369</v>
       </c>
       <c r="G48" t="n">
-        <v>641878.7606336649</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J48" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2067,26 +1889,15 @@
         <v>36014</v>
       </c>
       <c r="G49" t="n">
-        <v>641878.7606336649</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2108,26 +1919,15 @@
         <v>11454.9725</v>
       </c>
       <c r="G50" t="n">
-        <v>641878.7606336649</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2149,26 +1949,15 @@
         <v>0.0001</v>
       </c>
       <c r="G51" t="n">
-        <v>641878.7606336649</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2190,26 +1979,15 @@
         <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>641888.7606336649</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2231,26 +2009,15 @@
         <v>15210</v>
       </c>
       <c r="G53" t="n">
-        <v>641888.7606336649</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J53" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2272,24 +2039,15 @@
         <v>2822.258</v>
       </c>
       <c r="G54" t="n">
-        <v>641888.7606336649</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2311,24 +2069,15 @@
         <v>10997</v>
       </c>
       <c r="G55" t="n">
-        <v>641888.7606336649</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2350,26 +2099,15 @@
         <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>641898.7606336649</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J56" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2391,26 +2129,15 @@
         <v>4410</v>
       </c>
       <c r="G57" t="n">
-        <v>637488.7606336649</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J57" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2432,26 +2159,15 @@
         <v>43491.9804</v>
       </c>
       <c r="G58" t="n">
-        <v>593996.7802336649</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J58" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2473,26 +2189,15 @@
         <v>18970</v>
       </c>
       <c r="G59" t="n">
-        <v>612966.7802336649</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J59" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2514,26 +2219,15 @@
         <v>41021.8897</v>
       </c>
       <c r="G60" t="n">
-        <v>653988.6699336648</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2555,26 +2249,15 @@
         <v>63034.6182</v>
       </c>
       <c r="G61" t="n">
-        <v>653988.6699336648</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2596,24 +2279,15 @@
         <v>179194.375</v>
       </c>
       <c r="G62" t="n">
-        <v>833183.0449336648</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2635,24 +2309,15 @@
         <v>161906.792</v>
       </c>
       <c r="G63" t="n">
-        <v>671276.2529336648</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2674,24 +2339,15 @@
         <v>49684.8238</v>
       </c>
       <c r="G64" t="n">
-        <v>621591.4291336648</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>0.995</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2713,22 +2369,15 @@
         <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>621601.4291336648</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2750,24 +2399,15 @@
         <v>39261.8359</v>
       </c>
       <c r="G66" t="n">
-        <v>621601.4291336648</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2789,24 +2429,15 @@
         <v>23622.0472</v>
       </c>
       <c r="G67" t="n">
-        <v>597979.3819336648</v>
-      </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2828,18 +2459,15 @@
         <v>42500</v>
       </c>
       <c r="G68" t="n">
-        <v>597979.3819336648</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2861,22 +2489,15 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>597989.3819336648</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2898,24 +2519,15 @@
         <v>51171.875</v>
       </c>
       <c r="G70" t="n">
-        <v>546817.5069336648</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2937,26 +2549,15 @@
         <v>1500</v>
       </c>
       <c r="G71" t="n">
-        <v>548317.5069336648</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,18 +2579,15 @@
         <v>1795.8671</v>
       </c>
       <c r="G72" t="n">
-        <v>550113.3740336648</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3011,18 +2609,15 @@
         <v>14167.3906</v>
       </c>
       <c r="G73" t="n">
-        <v>550113.3740336648</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3044,18 +2639,15 @@
         <v>39155.1768</v>
       </c>
       <c r="G74" t="n">
-        <v>550113.3740336648</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3077,18 +2669,15 @@
         <v>13060</v>
       </c>
       <c r="G75" t="n">
-        <v>550113.3740336648</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3110,18 +2699,15 @@
         <v>112691.2951</v>
       </c>
       <c r="G76" t="n">
-        <v>437422.0789336648</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3143,22 +2729,15 @@
         <v>172226.8253</v>
       </c>
       <c r="G77" t="n">
-        <v>265195.2536336648</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J77" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3180,26 +2759,15 @@
         <v>10</v>
       </c>
       <c r="G78" t="n">
-        <v>265205.2536336648</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3221,26 +2789,15 @@
         <v>27715.5645</v>
       </c>
       <c r="G79" t="n">
-        <v>237489.6891336648</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J79" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3262,26 +2819,15 @@
         <v>177855.4103</v>
       </c>
       <c r="G80" t="n">
-        <v>415345.0994336648</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3303,26 +2849,15 @@
         <v>167031.3223</v>
       </c>
       <c r="G81" t="n">
-        <v>248313.7771336648</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3344,26 +2879,15 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>248323.7771336648</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3385,26 +2909,15 @@
         <v>12.3313</v>
       </c>
       <c r="G83" t="n">
-        <v>248311.4458336648</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3426,26 +2939,15 @@
         <v>28749.1735</v>
       </c>
       <c r="G84" t="n">
-        <v>277060.6193336648</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3467,26 +2969,15 @@
         <v>118110.2362</v>
       </c>
       <c r="G85" t="n">
-        <v>277060.6193336648</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3508,24 +2999,15 @@
         <v>115672.9862</v>
       </c>
       <c r="G86" t="n">
-        <v>161387.6331336648</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3547,26 +3029,15 @@
         <v>157443.7173</v>
       </c>
       <c r="G87" t="n">
-        <v>3943.915833664854</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3588,24 +3059,15 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>3953.915833664854</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3627,26 +3089,15 @@
         <v>81</v>
       </c>
       <c r="G89" t="n">
-        <v>3953.915833664854</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3668,24 +3119,15 @@
         <v>30967.3015</v>
       </c>
       <c r="G90" t="n">
-        <v>-27013.38566633515</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3707,26 +3149,15 @@
         <v>23310.1306</v>
       </c>
       <c r="G91" t="n">
-        <v>-50323.51626633515</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J91" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3748,26 +3179,15 @@
         <v>99284.32490000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-50323.51626633515</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J92" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3789,26 +3209,15 @@
         <v>100</v>
       </c>
       <c r="G93" t="n">
-        <v>-50223.51626633515</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3830,26 +3239,15 @@
         <v>3937.0078</v>
       </c>
       <c r="G94" t="n">
-        <v>-50223.51626633515</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J94" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3871,26 +3269,15 @@
         <v>184322.5983</v>
       </c>
       <c r="G95" t="n">
-        <v>-50223.51626633515</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J95" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3912,26 +3299,15 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>-50213.51626633515</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J96" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3953,26 +3329,15 @@
         <v>61023.622</v>
       </c>
       <c r="G97" t="n">
-        <v>-111237.1382663352</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J97" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3994,26 +3359,15 @@
         <v>41939.07</v>
       </c>
       <c r="G98" t="n">
-        <v>-153176.2082663352</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4035,26 +3389,15 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>-153166.2082663352</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4076,26 +3419,15 @@
         <v>107695.5642</v>
       </c>
       <c r="G100" t="n">
-        <v>-153166.2082663352</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J100" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4117,26 +3449,15 @@
         <v>1480</v>
       </c>
       <c r="G101" t="n">
-        <v>-151686.2082663352</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4158,26 +3479,15 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>-151686.2082663352</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J102" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4199,26 +3509,15 @@
         <v>49677.9851</v>
       </c>
       <c r="G103" t="n">
-        <v>-201364.1933663352</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J103" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4240,26 +3539,15 @@
         <v>21622.1466</v>
       </c>
       <c r="G104" t="n">
-        <v>-201364.1933663352</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
